--- a/reports/Angola_exports_products_HS-AG6-2003-2023.xlsx
+++ b/reports/Angola_exports_products_HS-AG6-2003-2023.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrc/develop/cipf-comtrade/reports/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE588F39-9ACA-1C44-A53E-7361AD1E1AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="500" windowWidth="31100" windowHeight="21300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -139,11 +133,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,13 +144,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -199,45 +183,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -275,7 +241,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -309,7 +275,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -344,10 +309,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -520,23 +484,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="3"/>
-    <col min="7" max="7" width="18.1640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,13 +501,13 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -562,7 +517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>2003</v>
       </c>
@@ -572,23 +527,23 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2">
         <v>8804250597.019001</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="3">
-        <v>0.94455329297426149</v>
+      <c r="F2">
+        <v>0.9445532929742615</v>
       </c>
       <c r="G2">
-        <v>9321073424.3439999</v>
+        <v>9321073424.344</v>
       </c>
       <c r="H2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2003</v>
       </c>
@@ -598,23 +553,23 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3">
         <v>277225900</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3" s="3">
-        <v>2.9741842744845742E-2</v>
+      <c r="F3">
+        <v>0.02974184274484574</v>
       </c>
       <c r="G3">
-        <v>9321073424.3439999</v>
+        <v>9321073424.344</v>
       </c>
       <c r="H3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>2003</v>
       </c>
@@ -624,23 +579,23 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4">
         <v>140536071</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" s="3">
-        <v>1.507724106463529E-2</v>
+      <c r="F4">
+        <v>0.01507724106463529</v>
       </c>
       <c r="G4">
-        <v>9321073424.3439999</v>
+        <v>9321073424.344</v>
       </c>
       <c r="H4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>2003</v>
       </c>
@@ -650,23 +605,23 @@
       <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5">
         <v>12669535</v>
       </c>
       <c r="E5">
         <v>5</v>
       </c>
-      <c r="F5" s="3">
-        <v>1.3592356183903421E-3</v>
+      <c r="F5">
+        <v>0.001359235618390342</v>
       </c>
       <c r="G5">
-        <v>9321073424.3439999</v>
+        <v>9321073424.344</v>
       </c>
       <c r="H5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>2003</v>
       </c>
@@ -676,23 +631,23 @@
       <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6">
         <v>16672610</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
-      <c r="F6" s="3">
-        <v>1.7887006400417219E-3</v>
+      <c r="F6">
+        <v>0.001788700640041722</v>
       </c>
       <c r="G6">
-        <v>9321073424.3439999</v>
+        <v>9321073424.344</v>
       </c>
       <c r="H6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>2004</v>
       </c>
@@ -702,14 +657,14 @@
       <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7">
         <v>136904563</v>
       </c>
       <c r="E7">
         <v>3</v>
       </c>
-      <c r="F7" s="3">
-        <v>1.0719472286177541E-2</v>
+      <c r="F7">
+        <v>0.01071947228617754</v>
       </c>
       <c r="G7">
         <v>12771576747.909</v>
@@ -718,7 +673,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>2004</v>
       </c>
@@ -728,14 +683,14 @@
       <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="5">
-        <v>12338282329.898001</v>
+      <c r="D8">
+        <v>12338282329.898</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8" s="3">
-        <v>0.96607353762471482</v>
+      <c r="F8">
+        <v>0.9660735376247148</v>
       </c>
       <c r="G8">
         <v>12771576747.909</v>
@@ -744,7 +699,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>2004</v>
       </c>
@@ -754,14 +709,14 @@
       <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="5">
-        <v>24641586.655999999</v>
+      <c r="D9">
+        <v>24641586.656</v>
       </c>
       <c r="E9">
         <v>4</v>
       </c>
-      <c r="F9" s="3">
-        <v>1.9294083371526069E-3</v>
+      <c r="F9">
+        <v>0.001929408337152607</v>
       </c>
       <c r="G9">
         <v>12771576747.909</v>
@@ -770,7 +725,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>2004</v>
       </c>
@@ -780,14 +735,14 @@
       <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10">
         <v>168682119</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
-      <c r="F10" s="3">
-        <v>1.3207618943966109E-2</v>
+      <c r="F10">
+        <v>0.01320761894396611</v>
       </c>
       <c r="G10">
         <v>12771576747.909</v>
@@ -796,7 +751,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>2004</v>
       </c>
@@ -806,14 +761,14 @@
       <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11">
         <v>13829634</v>
       </c>
       <c r="E11">
         <v>5</v>
       </c>
-      <c r="F11" s="3">
-        <v>1.082844684957496E-3</v>
+      <c r="F11">
+        <v>0.001082844684957496</v>
       </c>
       <c r="G11">
         <v>12771576747.909</v>
@@ -822,7 +777,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>2005</v>
       </c>
@@ -832,14 +787,14 @@
       <c r="C12" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12">
         <v>671586290</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
-      <c r="F12" s="3">
-        <v>3.041069356289431E-2</v>
+      <c r="F12">
+        <v>0.03041069356289431</v>
       </c>
       <c r="G12">
         <v>22083886005.791</v>
@@ -848,7 +803,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>2005</v>
       </c>
@@ -858,14 +813,14 @@
       <c r="C13" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13">
         <v>20937685727.146</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13" s="3">
-        <v>0.94809789009305534</v>
+      <c r="F13">
+        <v>0.9480978900930553</v>
       </c>
       <c r="G13">
         <v>22083886005.791</v>
@@ -874,7 +829,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>2005</v>
       </c>
@@ -884,14 +839,14 @@
       <c r="C14" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14">
         <v>37130851</v>
       </c>
       <c r="E14">
         <v>5</v>
       </c>
-      <c r="F14" s="3">
-        <v>1.6813549476873441E-3</v>
+      <c r="F14">
+        <v>0.001681354947687344</v>
       </c>
       <c r="G14">
         <v>22083886005.791</v>
@@ -900,7 +855,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>2005</v>
       </c>
@@ -910,14 +865,14 @@
       <c r="C15" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15">
         <v>199234112</v>
       </c>
       <c r="E15">
         <v>3</v>
       </c>
-      <c r="F15" s="3">
-        <v>9.0216962697486913E-3</v>
+      <c r="F15">
+        <v>0.009021696269748691</v>
       </c>
       <c r="G15">
         <v>22083886005.791</v>
@@ -926,7 +881,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>2005</v>
       </c>
@@ -936,14 +891,14 @@
       <c r="C16" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16">
         <v>47981226</v>
       </c>
       <c r="E16">
         <v>4</v>
       </c>
-      <c r="F16" s="3">
-        <v>2.17268038729316E-3</v>
+      <c r="F16">
+        <v>0.00217268038729316</v>
       </c>
       <c r="G16">
         <v>22083886005.791</v>
@@ -952,7 +907,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>2006</v>
       </c>
@@ -962,23 +917,23 @@
       <c r="C17" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="5">
-        <v>30670010352.422001</v>
+      <c r="D17">
+        <v>30670010352.422</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="F17" s="3">
-        <v>0.95903722218548326</v>
+      <c r="F17">
+        <v>0.9590372221854833</v>
       </c>
       <c r="G17">
-        <v>31979999986.372002</v>
+        <v>31979999986.372</v>
       </c>
       <c r="H17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>2006</v>
       </c>
@@ -988,23 +943,23 @@
       <c r="C18" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18">
         <v>137208332</v>
       </c>
       <c r="E18">
         <v>4</v>
       </c>
-      <c r="F18" s="3">
-        <v>4.2904419030165772E-3</v>
+      <c r="F18">
+        <v>0.004290441903016577</v>
       </c>
       <c r="G18">
-        <v>31979999986.372002</v>
+        <v>31979999986.372</v>
       </c>
       <c r="H18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>2006</v>
       </c>
@@ -1014,23 +969,23 @@
       <c r="C19" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19">
         <v>555402540</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
-      <c r="F19" s="3">
-        <v>1.736718387231645E-2</v>
+      <c r="F19">
+        <v>0.01736718387231645</v>
       </c>
       <c r="G19">
-        <v>31979999986.372002</v>
+        <v>31979999986.372</v>
       </c>
       <c r="H19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>2006</v>
       </c>
@@ -1040,23 +995,23 @@
       <c r="C20" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20">
         <v>91686471.434</v>
       </c>
       <c r="E20">
         <v>5</v>
       </c>
-      <c r="F20" s="3">
-        <v>2.8669941048490122E-3</v>
+      <c r="F20">
+        <v>0.002866994104849012</v>
       </c>
       <c r="G20">
-        <v>31979999986.372002</v>
+        <v>31979999986.372</v>
       </c>
       <c r="H20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>2006</v>
       </c>
@@ -1066,23 +1021,23 @@
       <c r="C21" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21">
         <v>258742278</v>
       </c>
       <c r="E21">
         <v>3</v>
       </c>
-      <c r="F21" s="3">
-        <v>8.0907529115153455E-3</v>
+      <c r="F21">
+        <v>0.008090752911515346</v>
       </c>
       <c r="G21">
-        <v>31979999986.372002</v>
+        <v>31979999986.372</v>
       </c>
       <c r="H21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>2007</v>
       </c>
@@ -1092,23 +1047,23 @@
       <c r="C22" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22">
         <v>38353255495.958</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="F22" s="3">
-        <v>0.91963657851278724</v>
+      <c r="F22">
+        <v>0.9196365785127872</v>
       </c>
       <c r="G22">
-        <v>41704795559.547997</v>
+        <v>41704795559.548</v>
       </c>
       <c r="H22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>2007</v>
       </c>
@@ -1118,23 +1073,23 @@
       <c r="C23" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23">
         <v>629137625</v>
       </c>
       <c r="E23">
         <v>4</v>
       </c>
-      <c r="F23" s="3">
-        <v>1.5085498359575671E-2</v>
+      <c r="F23">
+        <v>0.01508549835957567</v>
       </c>
       <c r="G23">
-        <v>41704795559.547997</v>
+        <v>41704795559.548</v>
       </c>
       <c r="H23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>2007</v>
       </c>
@@ -1144,23 +1099,23 @@
       <c r="C24" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="5">
-        <v>756137431.04799998</v>
+      <c r="D24">
+        <v>756137431.048</v>
       </c>
       <c r="E24">
         <v>2</v>
       </c>
-      <c r="F24" s="3">
-        <v>1.8130707054260769E-2</v>
+      <c r="F24">
+        <v>0.01813070705426077</v>
       </c>
       <c r="G24">
-        <v>41704795559.547997</v>
+        <v>41704795559.548</v>
       </c>
       <c r="H24" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>2007</v>
       </c>
@@ -1170,23 +1125,23 @@
       <c r="C25" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="5">
-        <v>305203367.75999999</v>
+      <c r="D25">
+        <v>305203367.76</v>
       </c>
       <c r="E25">
         <v>5</v>
       </c>
-      <c r="F25" s="3">
-        <v>7.3181840041444826E-3</v>
+      <c r="F25">
+        <v>0.007318184004144483</v>
       </c>
       <c r="G25">
-        <v>41704795559.547997</v>
+        <v>41704795559.548</v>
       </c>
       <c r="H25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>2007</v>
       </c>
@@ -1196,23 +1151,23 @@
       <c r="C26" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26">
         <v>685462362</v>
       </c>
       <c r="E26">
         <v>3</v>
       </c>
-      <c r="F26" s="3">
-        <v>1.643605616100589E-2</v>
+      <c r="F26">
+        <v>0.01643605616100589</v>
       </c>
       <c r="G26">
-        <v>41704795559.547997</v>
+        <v>41704795559.548</v>
       </c>
       <c r="H26" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>2008</v>
       </c>
@@ -1222,23 +1177,23 @@
       <c r="C27" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="5">
-        <v>65415688359.289001</v>
+      <c r="D27">
+        <v>65415688359.289</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
-      <c r="F27" s="3">
-        <v>0.96556034924549083</v>
+      <c r="F27">
+        <v>0.9655603492454908</v>
       </c>
       <c r="G27">
-        <v>67748938127.384987</v>
+        <v>67748938127.38499</v>
       </c>
       <c r="H27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>2008</v>
       </c>
@@ -1248,23 +1203,23 @@
       <c r="C28" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28">
         <v>354839645</v>
       </c>
       <c r="E28">
         <v>3</v>
       </c>
-      <c r="F28" s="3">
-        <v>5.2375676255296058E-3</v>
+      <c r="F28">
+        <v>0.005237567625529606</v>
       </c>
       <c r="G28">
-        <v>67748938127.384987</v>
+        <v>67748938127.38499</v>
       </c>
       <c r="H28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>2008</v>
       </c>
@@ -1274,23 +1229,23 @@
       <c r="C29" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29">
         <v>169212902.12</v>
       </c>
       <c r="E29">
         <v>5</v>
       </c>
-      <c r="F29" s="3">
-        <v>2.4976465579702122E-3</v>
+      <c r="F29">
+        <v>0.002497646557970212</v>
       </c>
       <c r="G29">
-        <v>67748938127.384987</v>
+        <v>67748938127.38499</v>
       </c>
       <c r="H29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>2008</v>
       </c>
@@ -1300,23 +1255,23 @@
       <c r="C30" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30">
         <v>867570658</v>
       </c>
       <c r="E30">
         <v>2</v>
       </c>
-      <c r="F30" s="3">
-        <v>1.2805671675159679E-2</v>
+      <c r="F30">
+        <v>0.01280567167515968</v>
       </c>
       <c r="G30">
-        <v>67748938127.384987</v>
+        <v>67748938127.38499</v>
       </c>
       <c r="H30" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>2008</v>
       </c>
@@ -1326,23 +1281,23 @@
       <c r="C31" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31">
         <v>246317378</v>
       </c>
       <c r="E31">
         <v>4</v>
       </c>
-      <c r="F31" s="3">
-        <v>3.6357378404494188E-3</v>
+      <c r="F31">
+        <v>0.003635737840449419</v>
       </c>
       <c r="G31">
-        <v>67748938127.384987</v>
+        <v>67748938127.38499</v>
       </c>
       <c r="H31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>2009</v>
       </c>
@@ -1352,14 +1307,14 @@
       <c r="C32" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="5">
-        <v>37663603854.625999</v>
+      <c r="D32">
+        <v>37663603854.626</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
-      <c r="F32" s="3">
-        <v>0.94526235271922809</v>
+      <c r="F32">
+        <v>0.9452623527192281</v>
       </c>
       <c r="G32">
         <v>39844603719.041</v>
@@ -1368,7 +1323,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>2009</v>
       </c>
@@ -1378,14 +1333,14 @@
       <c r="C33" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33">
         <v>290429924</v>
       </c>
       <c r="E33">
         <v>4</v>
       </c>
-      <c r="F33" s="3">
-        <v>7.289065441532021E-3</v>
+      <c r="F33">
+        <v>0.007289065441532021</v>
       </c>
       <c r="G33">
         <v>39844603719.041</v>
@@ -1394,7 +1349,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>2009</v>
       </c>
@@ -1404,14 +1359,14 @@
       <c r="C34" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34">
         <v>442058964</v>
       </c>
       <c r="E34">
         <v>2</v>
       </c>
-      <c r="F34" s="3">
-        <v>1.109457549426569E-2</v>
+      <c r="F34">
+        <v>0.01109457549426569</v>
       </c>
       <c r="G34">
         <v>39844603719.041</v>
@@ -1420,7 +1375,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>2009</v>
       </c>
@@ -1430,14 +1385,14 @@
       <c r="C35" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35">
         <v>268921727</v>
       </c>
       <c r="E35">
         <v>5</v>
       </c>
-      <c r="F35" s="3">
-        <v>6.7492634359288982E-3</v>
+      <c r="F35">
+        <v>0.006749263435928898</v>
       </c>
       <c r="G35">
         <v>39844603719.041</v>
@@ -1446,7 +1401,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>2009</v>
       </c>
@@ -1456,14 +1411,14 @@
       <c r="C36" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36">
         <v>336726680</v>
       </c>
       <c r="E36">
         <v>3</v>
       </c>
-      <c r="F36" s="3">
-        <v>8.4509983428216282E-3</v>
+      <c r="F36">
+        <v>0.008450998342821628</v>
       </c>
       <c r="G36">
         <v>39844603719.041</v>
@@ -1472,7 +1427,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>2010</v>
       </c>
@@ -1482,23 +1437,23 @@
       <c r="C37" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="5">
-        <v>51232258923.114998</v>
+      <c r="D37">
+        <v>51232258923.115</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
-      <c r="F37" s="3">
-        <v>0.96172540656460814</v>
+      <c r="F37">
+        <v>0.9617254065646081</v>
       </c>
       <c r="G37">
-        <v>53271192144.254997</v>
+        <v>53271192144.255</v>
       </c>
       <c r="H37" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>2010</v>
       </c>
@@ -1508,23 +1463,23 @@
       <c r="C38" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38">
         <v>236513063.736</v>
       </c>
       <c r="E38">
         <v>5</v>
       </c>
-      <c r="F38" s="3">
-        <v>4.4397929578061197E-3</v>
+      <c r="F38">
+        <v>0.00443979295780612</v>
       </c>
       <c r="G38">
-        <v>53271192144.254997</v>
+        <v>53271192144.255</v>
       </c>
       <c r="H38" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>2010</v>
       </c>
@@ -1534,23 +1489,23 @@
       <c r="C39" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="5">
-        <v>323441193.64899999</v>
+      <c r="D39">
+        <v>323441193.649</v>
       </c>
       <c r="E39">
         <v>2</v>
       </c>
-      <c r="F39" s="3">
-        <v>6.071596685374373E-3</v>
+      <c r="F39">
+        <v>0.006071596685374373</v>
       </c>
       <c r="G39">
-        <v>53271192144.254997</v>
+        <v>53271192144.255</v>
       </c>
       <c r="H39" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>2010</v>
       </c>
@@ -1560,23 +1515,23 @@
       <c r="C40" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40">
         <v>257843942</v>
       </c>
       <c r="E40">
         <v>4</v>
       </c>
-      <c r="F40" s="3">
-        <v>4.840213474137673E-3</v>
+      <c r="F40">
+        <v>0.004840213474137673</v>
       </c>
       <c r="G40">
-        <v>53271192144.254997</v>
+        <v>53271192144.255</v>
       </c>
       <c r="H40" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>2010</v>
       </c>
@@ -1586,23 +1541,23 @@
       <c r="C41" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41">
         <v>321712229</v>
       </c>
       <c r="E41">
         <v>3</v>
       </c>
-      <c r="F41" s="3">
-        <v>6.0391407822979401E-3</v>
+      <c r="F41">
+        <v>0.00603914078229794</v>
       </c>
       <c r="G41">
-        <v>53271192144.254997</v>
+        <v>53271192144.255</v>
       </c>
       <c r="H41" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>2011</v>
       </c>
@@ -1612,23 +1567,23 @@
       <c r="C42" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42">
         <v>63112713148.611</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42">
         <v>0.9576169239015685</v>
       </c>
       <c r="G42">
-        <v>65906012700.228996</v>
+        <v>65906012700.229</v>
       </c>
       <c r="H42" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>2011</v>
       </c>
@@ -1638,23 +1593,23 @@
       <c r="C43" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="5">
-        <v>573755494.61399996</v>
+      <c r="D43">
+        <v>573755494.614</v>
       </c>
       <c r="E43">
         <v>3</v>
       </c>
-      <c r="F43" s="3">
-        <v>8.7056623683745681E-3</v>
+      <c r="F43">
+        <v>0.008705662368374568</v>
       </c>
       <c r="G43">
-        <v>65906012700.228996</v>
+        <v>65906012700.229</v>
       </c>
       <c r="H43" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>2011</v>
       </c>
@@ -1664,23 +1619,23 @@
       <c r="C44" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44">
         <v>254329873.639</v>
       </c>
       <c r="E44">
         <v>5</v>
       </c>
-      <c r="F44" s="3">
-        <v>3.858978311976023E-3</v>
+      <c r="F44">
+        <v>0.003858978311976023</v>
       </c>
       <c r="G44">
-        <v>65906012700.228996</v>
+        <v>65906012700.229</v>
       </c>
       <c r="H44" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>2011</v>
       </c>
@@ -1690,23 +1645,23 @@
       <c r="C45" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="5">
-        <v>497404862.51899999</v>
+      <c r="D45">
+        <v>497404862.519</v>
       </c>
       <c r="E45">
         <v>4</v>
       </c>
-      <c r="F45" s="3">
-        <v>7.5471848794953986E-3</v>
+      <c r="F45">
+        <v>0.007547184879495399</v>
       </c>
       <c r="G45">
-        <v>65906012700.228996</v>
+        <v>65906012700.229</v>
       </c>
       <c r="H45" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>2011</v>
       </c>
@@ -1716,23 +1671,23 @@
       <c r="C46" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46">
         <v>750305508</v>
       </c>
       <c r="E46">
         <v>2</v>
       </c>
-      <c r="F46" s="3">
-        <v>1.138447733764044E-2</v>
+      <c r="F46">
+        <v>0.01138447733764044</v>
       </c>
       <c r="G46">
-        <v>65906012700.228996</v>
+        <v>65906012700.229</v>
       </c>
       <c r="H46" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>2012</v>
       </c>
@@ -1742,23 +1697,23 @@
       <c r="C47" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="5">
-        <v>490676644.23400003</v>
+      <c r="D47">
+        <v>490676644.234</v>
       </c>
       <c r="E47">
         <v>5</v>
       </c>
-      <c r="F47" s="3">
-        <v>6.4999485870999418E-3</v>
+      <c r="F47">
+        <v>0.006499948587099942</v>
       </c>
       <c r="G47">
-        <v>75489311593.604996</v>
+        <v>75489311593.605</v>
       </c>
       <c r="H47" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>2012</v>
       </c>
@@ -1768,23 +1723,23 @@
       <c r="C48" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="5">
-        <v>2064061569.7550001</v>
+      <c r="D48">
+        <v>2064061569.755</v>
       </c>
       <c r="E48">
         <v>2</v>
       </c>
-      <c r="F48" s="3">
-        <v>2.7342434659714861E-2</v>
+      <c r="F48">
+        <v>0.02734243465971486</v>
       </c>
       <c r="G48">
-        <v>75489311593.604996</v>
+        <v>75489311593.605</v>
       </c>
       <c r="H48" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>2012</v>
       </c>
@@ -1794,23 +1749,23 @@
       <c r="C49" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="5">
-        <v>70071287724.169998</v>
+      <c r="D49">
+        <v>70071287724.17</v>
       </c>
       <c r="E49">
         <v>1</v>
       </c>
-      <c r="F49" s="3">
-        <v>0.92822793379541191</v>
+      <c r="F49">
+        <v>0.9282279337954119</v>
       </c>
       <c r="G49">
-        <v>75489311593.604996</v>
+        <v>75489311593.605</v>
       </c>
       <c r="H49" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8">
       <c r="A50">
         <v>2012</v>
       </c>
@@ -1820,23 +1775,23 @@
       <c r="C50" t="s">
         <v>19</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50">
         <v>909481828</v>
       </c>
       <c r="E50">
         <v>3</v>
       </c>
-      <c r="F50" s="3">
-        <v>1.2047822516864041E-2</v>
+      <c r="F50">
+        <v>0.01204782251686404</v>
       </c>
       <c r="G50">
-        <v>75489311593.604996</v>
+        <v>75489311593.605</v>
       </c>
       <c r="H50" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8">
       <c r="A51">
         <v>2012</v>
       </c>
@@ -1846,23 +1801,23 @@
       <c r="C51" t="s">
         <v>17</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51">
         <v>892751499</v>
       </c>
       <c r="E51">
         <v>4</v>
       </c>
-      <c r="F51" s="3">
-        <v>1.182619738018155E-2</v>
+      <c r="F51">
+        <v>0.01182619738018155</v>
       </c>
       <c r="G51">
-        <v>75489311593.604996</v>
+        <v>75489311593.605</v>
       </c>
       <c r="H51" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8">
       <c r="A52">
         <v>2013</v>
       </c>
@@ -1872,23 +1827,23 @@
       <c r="C52" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="5">
-        <v>67290277427.779999</v>
+      <c r="D52">
+        <v>67290277427.78</v>
       </c>
       <c r="E52">
         <v>1</v>
       </c>
-      <c r="F52" s="3">
-        <v>0.93062335033357912</v>
+      <c r="F52">
+        <v>0.9306233503335791</v>
       </c>
       <c r="G52">
-        <v>72306672085.608002</v>
+        <v>72306672085.608</v>
       </c>
       <c r="H52" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8">
       <c r="A53">
         <v>2013</v>
       </c>
@@ -1898,23 +1853,23 @@
       <c r="C53" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="5">
-        <v>672496033.57500005</v>
+      <c r="D53">
+        <v>672496033.575</v>
       </c>
       <c r="E53">
         <v>4</v>
       </c>
-      <c r="F53" s="3">
-        <v>9.3006082865879046E-3</v>
+      <c r="F53">
+        <v>0.009300608286587905</v>
       </c>
       <c r="G53">
-        <v>72306672085.608002</v>
+        <v>72306672085.608</v>
       </c>
       <c r="H53" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8">
       <c r="A54">
         <v>2013</v>
       </c>
@@ -1924,23 +1879,23 @@
       <c r="C54" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D54">
         <v>1339792266.596</v>
       </c>
       <c r="E54">
         <v>2</v>
       </c>
-      <c r="F54" s="3">
-        <v>1.852930342319923E-2</v>
+      <c r="F54">
+        <v>0.01852930342319923</v>
       </c>
       <c r="G54">
-        <v>72306672085.608002</v>
+        <v>72306672085.608</v>
       </c>
       <c r="H54" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8">
       <c r="A55">
         <v>2013</v>
       </c>
@@ -1950,23 +1905,23 @@
       <c r="C55" t="s">
         <v>19</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55">
         <v>549567516</v>
       </c>
       <c r="E55">
         <v>5</v>
       </c>
-      <c r="F55" s="3">
-        <v>7.6005090560568962E-3</v>
+      <c r="F55">
+        <v>0.007600509056056896</v>
       </c>
       <c r="G55">
-        <v>72306672085.608002</v>
+        <v>72306672085.608</v>
       </c>
       <c r="H55" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8">
       <c r="A56">
         <v>2013</v>
       </c>
@@ -1976,23 +1931,23 @@
       <c r="C56" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="5">
-        <v>786302637.46899998</v>
+      <c r="D56">
+        <v>786302637.469</v>
       </c>
       <c r="E56">
         <v>3</v>
       </c>
-      <c r="F56" s="3">
-        <v>1.087455161175239E-2</v>
+      <c r="F56">
+        <v>0.01087455161175239</v>
       </c>
       <c r="G56">
-        <v>72306672085.608002</v>
+        <v>72306672085.608</v>
       </c>
       <c r="H56" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8">
       <c r="A57">
         <v>2014</v>
       </c>
@@ -2002,23 +1957,23 @@
       <c r="C57" t="s">
         <v>9</v>
       </c>
-      <c r="D57" s="5">
-        <v>61309316812.647003</v>
+      <c r="D57">
+        <v>61309316812.647</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
-      <c r="F57" s="3">
-        <v>0.94763136166477457</v>
+      <c r="F57">
+        <v>0.9476313616647746</v>
       </c>
       <c r="G57">
-        <v>64697433298.261002</v>
+        <v>64697433298.261</v>
       </c>
       <c r="H57" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8">
       <c r="A58">
         <v>2014</v>
       </c>
@@ -2028,23 +1983,23 @@
       <c r="C58" t="s">
         <v>11</v>
       </c>
-      <c r="D58" s="5">
-        <v>549285039.90400004</v>
+      <c r="D58">
+        <v>549285039.904</v>
       </c>
       <c r="E58">
         <v>3</v>
       </c>
-      <c r="F58" s="3">
-        <v>8.4900592172141749E-3</v>
+      <c r="F58">
+        <v>0.008490059217214175</v>
       </c>
       <c r="G58">
-        <v>64697433298.261002</v>
+        <v>64697433298.261</v>
       </c>
       <c r="H58" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8">
       <c r="A59">
         <v>2014</v>
       </c>
@@ -2054,23 +2009,23 @@
       <c r="C59" t="s">
         <v>20</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D59">
         <v>297758063</v>
       </c>
       <c r="E59">
         <v>5</v>
       </c>
-      <c r="F59" s="3">
-        <v>4.6023164725454936E-3</v>
+      <c r="F59">
+        <v>0.004602316472545494</v>
       </c>
       <c r="G59">
-        <v>64697433298.261002</v>
+        <v>64697433298.261</v>
       </c>
       <c r="H59" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8">
       <c r="A60">
         <v>2014</v>
       </c>
@@ -2080,23 +2035,23 @@
       <c r="C60" t="s">
         <v>15</v>
       </c>
-      <c r="D60" s="5">
-        <v>304466641.36400002</v>
+      <c r="D60">
+        <v>304466641.364</v>
       </c>
       <c r="E60">
         <v>4</v>
       </c>
-      <c r="F60" s="3">
-        <v>4.7060080414686829E-3</v>
+      <c r="F60">
+        <v>0.004706008041468683</v>
       </c>
       <c r="G60">
-        <v>64697433298.261002</v>
+        <v>64697433298.261</v>
       </c>
       <c r="H60" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8">
       <c r="A61">
         <v>2014</v>
       </c>
@@ -2106,23 +2061,23 @@
       <c r="C61" t="s">
         <v>10</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D61">
         <v>1614874266.651</v>
       </c>
       <c r="E61">
         <v>2</v>
       </c>
-      <c r="F61" s="3">
-        <v>2.4960406994915609E-2</v>
+      <c r="F61">
+        <v>0.02496040699491561</v>
       </c>
       <c r="G61">
-        <v>64697433298.261002</v>
+        <v>64697433298.261</v>
       </c>
       <c r="H61" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8">
       <c r="A62">
         <v>2015</v>
       </c>
@@ -2132,23 +2087,23 @@
       <c r="C62" t="s">
         <v>9</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D62">
         <v>33142378531.43</v>
       </c>
       <c r="E62">
         <v>1</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62">
         <v>0.8996700293397103</v>
       </c>
       <c r="G62">
-        <v>36838371236.790001</v>
+        <v>36838371236.79</v>
       </c>
       <c r="H62" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8">
       <c r="A63">
         <v>2015</v>
       </c>
@@ -2158,23 +2113,23 @@
       <c r="C63" t="s">
         <v>11</v>
       </c>
-      <c r="D63" s="5">
-        <v>666488970.64199996</v>
+      <c r="D63">
+        <v>666488970.642</v>
       </c>
       <c r="E63">
         <v>3</v>
       </c>
-      <c r="F63" s="3">
-        <v>1.8092248605616579E-2</v>
+      <c r="F63">
+        <v>0.01809224860561658</v>
       </c>
       <c r="G63">
-        <v>36838371236.790001</v>
+        <v>36838371236.79</v>
       </c>
       <c r="H63" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8">
       <c r="A64">
         <v>2015</v>
       </c>
@@ -2184,23 +2139,23 @@
       <c r="C64" t="s">
         <v>15</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D64">
         <v>119217828.595</v>
       </c>
       <c r="E64">
         <v>5</v>
       </c>
-      <c r="F64" s="3">
-        <v>3.236240490348789E-3</v>
+      <c r="F64">
+        <v>0.003236240490348789</v>
       </c>
       <c r="G64">
-        <v>36838371236.790001</v>
+        <v>36838371236.79</v>
       </c>
       <c r="H64" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8">
       <c r="A65">
         <v>2015</v>
       </c>
@@ -2210,23 +2165,23 @@
       <c r="C65" t="s">
         <v>10</v>
       </c>
-      <c r="D65" s="5">
-        <v>1838077008.3759999</v>
+      <c r="D65">
+        <v>1838077008.376</v>
       </c>
       <c r="E65">
         <v>2</v>
       </c>
-      <c r="F65" s="3">
-        <v>4.9895718693999599E-2</v>
+      <c r="F65">
+        <v>0.0498957186939996</v>
       </c>
       <c r="G65">
-        <v>36838371236.790001</v>
+        <v>36838371236.79</v>
       </c>
       <c r="H65" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8">
       <c r="A66">
         <v>2015</v>
       </c>
@@ -2236,23 +2191,23 @@
       <c r="C66" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="5">
-        <v>547289662.46999991</v>
+      <c r="D66">
+        <v>547289662.4699999</v>
       </c>
       <c r="E66">
         <v>4</v>
       </c>
-      <c r="F66" s="3">
-        <v>1.4856510863418109E-2</v>
+      <c r="F66">
+        <v>0.01485651086341811</v>
       </c>
       <c r="G66">
-        <v>36838371236.790001</v>
+        <v>36838371236.79</v>
       </c>
       <c r="H66" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8">
       <c r="A67">
         <v>2016</v>
       </c>
@@ -2262,14 +2217,14 @@
       <c r="C67" t="s">
         <v>9</v>
       </c>
-      <c r="D67" s="5">
-        <v>25303998319.817001</v>
+      <c r="D67">
+        <v>25303998319.817</v>
       </c>
       <c r="E67">
         <v>1</v>
       </c>
-      <c r="F67" s="3">
-        <v>0.89389681576530722</v>
+      <c r="F67">
+        <v>0.8938968157653072</v>
       </c>
       <c r="G67">
         <v>28307515893.938</v>
@@ -2278,7 +2233,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8">
       <c r="A68">
         <v>2016</v>
       </c>
@@ -2288,14 +2243,14 @@
       <c r="C68" t="s">
         <v>20</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68">
         <v>162995050.204</v>
       </c>
       <c r="E68">
         <v>4</v>
       </c>
-      <c r="F68" s="3">
-        <v>5.758013200971304E-3</v>
+      <c r="F68">
+        <v>0.005758013200971304</v>
       </c>
       <c r="G68">
         <v>28307515893.938</v>
@@ -2304,7 +2259,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8">
       <c r="A69">
         <v>2016</v>
       </c>
@@ -2314,14 +2269,14 @@
       <c r="C69" t="s">
         <v>15</v>
       </c>
-      <c r="D69" s="5">
-        <v>115389093.37100001</v>
+      <c r="D69">
+        <v>115389093.371</v>
       </c>
       <c r="E69">
         <v>5</v>
       </c>
-      <c r="F69" s="3">
-        <v>4.0762705496072988E-3</v>
+      <c r="F69">
+        <v>0.004076270549607299</v>
       </c>
       <c r="G69">
         <v>28307515893.938</v>
@@ -2330,7 +2285,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8">
       <c r="A70">
         <v>2016</v>
       </c>
@@ -2340,14 +2295,14 @@
       <c r="C70" t="s">
         <v>10</v>
       </c>
-      <c r="D70" s="5">
-        <v>1836067256.7290001</v>
+      <c r="D70">
+        <v>1836067256.729</v>
       </c>
       <c r="E70">
         <v>2</v>
       </c>
-      <c r="F70" s="3">
-        <v>6.4861475786442649E-2</v>
+      <c r="F70">
+        <v>0.06486147578644265</v>
       </c>
       <c r="G70">
         <v>28307515893.938</v>
@@ -2356,7 +2311,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8">
       <c r="A71">
         <v>2016</v>
       </c>
@@ -2366,14 +2321,14 @@
       <c r="C71" t="s">
         <v>11</v>
       </c>
-      <c r="D71" s="5">
-        <v>244885593.51499999</v>
+      <c r="D71">
+        <v>244885593.515</v>
       </c>
       <c r="E71">
         <v>3</v>
       </c>
-      <c r="F71" s="3">
-        <v>8.6509036834080434E-3</v>
+      <c r="F71">
+        <v>0.008650903683408043</v>
       </c>
       <c r="G71">
         <v>28307515893.938</v>
@@ -2382,7 +2337,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8">
       <c r="A72">
         <v>2017</v>
       </c>
@@ -2392,23 +2347,23 @@
       <c r="C72" t="s">
         <v>21</v>
       </c>
-      <c r="D72" s="5">
+      <c r="D72">
         <v>202151176.583</v>
       </c>
       <c r="E72">
         <v>5</v>
       </c>
-      <c r="F72" s="3">
-        <v>5.5070619814852834E-3</v>
+      <c r="F72">
+        <v>0.005507061981485283</v>
       </c>
       <c r="G72">
-        <v>36707626909.345001</v>
+        <v>36707626909.345</v>
       </c>
       <c r="H72" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8">
       <c r="A73">
         <v>2017</v>
       </c>
@@ -2418,23 +2373,23 @@
       <c r="C73" t="s">
         <v>20</v>
       </c>
-      <c r="D73" s="5">
+      <c r="D73">
         <v>1040970251.272</v>
       </c>
       <c r="E73">
         <v>3</v>
       </c>
-      <c r="F73" s="3">
-        <v>2.8358418642611589E-2</v>
+      <c r="F73">
+        <v>0.02835841864261159</v>
       </c>
       <c r="G73">
-        <v>36707626909.345001</v>
+        <v>36707626909.345</v>
       </c>
       <c r="H73" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8">
       <c r="A74">
         <v>2017</v>
       </c>
@@ -2444,23 +2399,23 @@
       <c r="C74" t="s">
         <v>10</v>
       </c>
-      <c r="D74" s="5">
-        <v>2478620675.7420001</v>
+      <c r="D74">
+        <v>2478620675.742</v>
       </c>
       <c r="E74">
         <v>2</v>
       </c>
-      <c r="F74" s="3">
-        <v>6.7523315573173009E-2</v>
+      <c r="F74">
+        <v>0.06752331557317301</v>
       </c>
       <c r="G74">
-        <v>36707626909.345001</v>
+        <v>36707626909.345</v>
       </c>
       <c r="H74" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8">
       <c r="A75">
         <v>2017</v>
       </c>
@@ -2470,23 +2425,23 @@
       <c r="C75" t="s">
         <v>9</v>
       </c>
-      <c r="D75" s="5">
-        <v>31629925150.162998</v>
+      <c r="D75">
+        <v>31629925150.163</v>
       </c>
       <c r="E75">
         <v>1</v>
       </c>
-      <c r="F75" s="3">
-        <v>0.86167175089465342</v>
+      <c r="F75">
+        <v>0.8616717508946534</v>
       </c>
       <c r="G75">
-        <v>36707626909.345001</v>
+        <v>36707626909.345</v>
       </c>
       <c r="H75" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8">
       <c r="A76">
         <v>2017</v>
       </c>
@@ -2496,23 +2451,23 @@
       <c r="C76" t="s">
         <v>15</v>
       </c>
-      <c r="D76" s="5">
-        <v>351839752.76999998</v>
+      <c r="D76">
+        <v>351839752.77</v>
       </c>
       <c r="E76">
         <v>4</v>
       </c>
-      <c r="F76" s="3">
-        <v>9.5849223279652774E-3</v>
+      <c r="F76">
+        <v>0.009584922327965277</v>
       </c>
       <c r="G76">
-        <v>36707626909.345001</v>
+        <v>36707626909.345</v>
       </c>
       <c r="H76" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8">
       <c r="A77">
         <v>2018</v>
       </c>
@@ -2522,23 +2477,23 @@
       <c r="C77" t="s">
         <v>9</v>
       </c>
-      <c r="D77" s="5">
-        <v>38649590903.410004</v>
+      <c r="D77">
+        <v>38649590903.41</v>
       </c>
       <c r="E77">
         <v>1</v>
       </c>
-      <c r="F77" s="3">
-        <v>0.87461788003866259</v>
+      <c r="F77">
+        <v>0.8746178800386626</v>
       </c>
       <c r="G77">
-        <v>44190259295.524002</v>
+        <v>44190259295.524</v>
       </c>
       <c r="H77" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8">
       <c r="A78">
         <v>2018</v>
       </c>
@@ -2548,23 +2503,23 @@
       <c r="C78" t="s">
         <v>20</v>
       </c>
-      <c r="D78" s="5">
+      <c r="D78">
         <v>1520628153.483</v>
       </c>
       <c r="E78">
         <v>3</v>
       </c>
-      <c r="F78" s="3">
-        <v>3.4410935299422948E-2</v>
+      <c r="F78">
+        <v>0.03441093529942295</v>
       </c>
       <c r="G78">
-        <v>44190259295.524002</v>
+        <v>44190259295.524</v>
       </c>
       <c r="H78" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8">
       <c r="A79">
         <v>2018</v>
       </c>
@@ -2574,23 +2529,23 @@
       <c r="C79" t="s">
         <v>10</v>
       </c>
-      <c r="D79" s="5">
+      <c r="D79">
         <v>2208487556.289</v>
       </c>
       <c r="E79">
         <v>2</v>
       </c>
-      <c r="F79" s="3">
-        <v>4.9976795599221469E-2</v>
+      <c r="F79">
+        <v>0.04997679559922147</v>
       </c>
       <c r="G79">
-        <v>44190259295.524002</v>
+        <v>44190259295.524</v>
       </c>
       <c r="H79" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8">
       <c r="A80">
         <v>2018</v>
       </c>
@@ -2600,23 +2555,23 @@
       <c r="C80" t="s">
         <v>14</v>
       </c>
-      <c r="D80" s="5">
+      <c r="D80">
         <v>301511758.088</v>
       </c>
       <c r="E80">
         <v>5</v>
       </c>
-      <c r="F80" s="3">
-        <v>6.8230366351016156E-3</v>
+      <c r="F80">
+        <v>0.006823036635101616</v>
       </c>
       <c r="G80">
-        <v>44190259295.524002</v>
+        <v>44190259295.524</v>
       </c>
       <c r="H80" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8">
       <c r="A81">
         <v>2018</v>
       </c>
@@ -2626,23 +2581,23 @@
       <c r="C81" t="s">
         <v>15</v>
       </c>
-      <c r="D81" s="5">
+      <c r="D81">
         <v>407918898.824</v>
       </c>
       <c r="E81">
         <v>4</v>
       </c>
-      <c r="F81" s="3">
-        <v>9.2309686642938031E-3</v>
+      <c r="F81">
+        <v>0.009230968664293803</v>
       </c>
       <c r="G81">
-        <v>44190259295.524002</v>
+        <v>44190259295.524</v>
       </c>
       <c r="H81" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8">
       <c r="A82">
         <v>2019</v>
       </c>
@@ -2652,23 +2607,23 @@
       <c r="C82" t="s">
         <v>9</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82">
         <v>32848819076.848</v>
       </c>
       <c r="E82">
         <v>1</v>
       </c>
-      <c r="F82" s="3">
-        <v>0.87498125768831092</v>
+      <c r="F82">
+        <v>0.8749812576883109</v>
       </c>
       <c r="G82">
-        <v>37542311664.634003</v>
+        <v>37542311664.634</v>
       </c>
       <c r="H82" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8">
       <c r="A83">
         <v>2019</v>
       </c>
@@ -2678,23 +2633,23 @@
       <c r="C83" t="s">
         <v>21</v>
       </c>
-      <c r="D83" s="5">
-        <v>229382276.95300001</v>
+      <c r="D83">
+        <v>229382276.953</v>
       </c>
       <c r="E83">
         <v>5</v>
       </c>
-      <c r="F83" s="3">
-        <v>6.1099667756763397E-3</v>
+      <c r="F83">
+        <v>0.00610996677567634</v>
       </c>
       <c r="G83">
-        <v>37542311664.634003</v>
+        <v>37542311664.634</v>
       </c>
       <c r="H83" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8">
       <c r="A84">
         <v>2019</v>
       </c>
@@ -2704,23 +2659,23 @@
       <c r="C84" t="s">
         <v>20</v>
       </c>
-      <c r="D84" s="5">
-        <v>1306649180.8199999</v>
+      <c r="D84">
+        <v>1306649180.82</v>
       </c>
       <c r="E84">
         <v>3</v>
       </c>
-      <c r="F84" s="3">
-        <v>3.4804707618761359E-2</v>
+      <c r="F84">
+        <v>0.03480470761876136</v>
       </c>
       <c r="G84">
-        <v>37542311664.634003</v>
+        <v>37542311664.634</v>
       </c>
       <c r="H84" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8">
       <c r="A85">
         <v>2019</v>
       </c>
@@ -2730,23 +2685,23 @@
       <c r="C85" t="s">
         <v>15</v>
       </c>
-      <c r="D85" s="5">
-        <v>440201044.65200001</v>
+      <c r="D85">
+        <v>440201044.652</v>
       </c>
       <c r="E85">
         <v>4</v>
       </c>
-      <c r="F85" s="3">
-        <v>1.17254645527511E-2</v>
+      <c r="F85">
+        <v>0.0117254645527511</v>
       </c>
       <c r="G85">
-        <v>37542311664.634003</v>
+        <v>37542311664.634</v>
       </c>
       <c r="H85" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8">
       <c r="A86">
         <v>2019</v>
       </c>
@@ -2756,23 +2711,23 @@
       <c r="C86" t="s">
         <v>10</v>
       </c>
-      <c r="D86" s="5">
-        <v>1599071860.5880001</v>
+      <c r="D86">
+        <v>1599071860.588</v>
       </c>
       <c r="E86">
         <v>2</v>
       </c>
-      <c r="F86" s="3">
-        <v>4.2593857162354087E-2</v>
+      <c r="F86">
+        <v>0.04259385716235409</v>
       </c>
       <c r="G86">
-        <v>37542311664.634003</v>
+        <v>37542311664.634</v>
       </c>
       <c r="H86" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8">
       <c r="A87">
         <v>2020</v>
       </c>
@@ -2782,23 +2737,23 @@
       <c r="C87" t="s">
         <v>9</v>
       </c>
-      <c r="D87" s="5">
+      <c r="D87">
         <v>20537086924.486</v>
       </c>
       <c r="E87">
         <v>1</v>
       </c>
-      <c r="F87" s="3">
-        <v>0.85526788414099586</v>
+      <c r="F87">
+        <v>0.8552678841409959</v>
       </c>
       <c r="G87">
-        <v>24012461247.873001</v>
+        <v>24012461247.873</v>
       </c>
       <c r="H87" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8">
       <c r="A88">
         <v>2020</v>
       </c>
@@ -2808,23 +2763,23 @@
       <c r="C88" t="s">
         <v>21</v>
       </c>
-      <c r="D88" s="5">
-        <v>188211345.47799999</v>
+      <c r="D88">
+        <v>188211345.478</v>
       </c>
       <c r="E88">
         <v>5</v>
       </c>
-      <c r="F88" s="3">
-        <v>7.8380697228474048E-3</v>
+      <c r="F88">
+        <v>0.007838069722847405</v>
       </c>
       <c r="G88">
-        <v>24012461247.873001</v>
+        <v>24012461247.873</v>
       </c>
       <c r="H88" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8">
       <c r="A89">
         <v>2020</v>
       </c>
@@ -2834,23 +2789,23 @@
       <c r="C89" t="s">
         <v>20</v>
       </c>
-      <c r="D89" s="5">
-        <v>1025552234.9069999</v>
+      <c r="D89">
+        <v>1025552234.907</v>
       </c>
       <c r="E89">
         <v>3</v>
       </c>
-      <c r="F89" s="3">
-        <v>4.2709167724230793E-2</v>
+      <c r="F89">
+        <v>0.04270916772423079</v>
       </c>
       <c r="G89">
-        <v>24012461247.873001</v>
+        <v>24012461247.873</v>
       </c>
       <c r="H89" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8">
       <c r="A90">
         <v>2020</v>
       </c>
@@ -2860,23 +2815,23 @@
       <c r="C90" t="s">
         <v>10</v>
       </c>
-      <c r="D90" s="5">
+      <c r="D90">
         <v>1370737895.533</v>
       </c>
       <c r="E90">
         <v>2</v>
       </c>
-      <c r="F90" s="3">
-        <v>5.7084439674188692E-2</v>
+      <c r="F90">
+        <v>0.05708443967418869</v>
       </c>
       <c r="G90">
-        <v>24012461247.873001</v>
+        <v>24012461247.873</v>
       </c>
       <c r="H90" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8">
       <c r="A91">
         <v>2020</v>
       </c>
@@ -2886,23 +2841,23 @@
       <c r="C91" t="s">
         <v>15</v>
       </c>
-      <c r="D91" s="5">
-        <v>370373342.23100001</v>
+      <c r="D91">
+        <v>370373342.231</v>
       </c>
       <c r="E91">
         <v>4</v>
       </c>
-      <c r="F91" s="3">
-        <v>1.542421405318488E-2</v>
+      <c r="F91">
+        <v>0.01542421405318488</v>
       </c>
       <c r="G91">
-        <v>24012461247.873001</v>
+        <v>24012461247.873</v>
       </c>
       <c r="H91" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8">
       <c r="A92">
         <v>2021</v>
       </c>
@@ -2912,14 +2867,14 @@
       <c r="C92" t="s">
         <v>9</v>
       </c>
-      <c r="D92" s="5">
-        <v>27464000451.337002</v>
+      <c r="D92">
+        <v>27464000451.337</v>
       </c>
       <c r="E92">
         <v>1</v>
       </c>
-      <c r="F92" s="3">
-        <v>0.81627530783546864</v>
+      <c r="F92">
+        <v>0.8162753078354686</v>
       </c>
       <c r="G92">
         <v>33645511738.146</v>
@@ -2928,7 +2883,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8">
       <c r="A93">
         <v>2021</v>
       </c>
@@ -2938,14 +2893,14 @@
       <c r="C93" t="s">
         <v>20</v>
       </c>
-      <c r="D93" s="5">
-        <v>2317404640.7490001</v>
+      <c r="D93">
+        <v>2317404640.749</v>
       </c>
       <c r="E93">
         <v>3</v>
       </c>
-      <c r="F93" s="3">
-        <v>6.8877081103260934E-2</v>
+      <c r="F93">
+        <v>0.06887708110326093</v>
       </c>
       <c r="G93">
         <v>33645511738.146</v>
@@ -2954,7 +2909,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8">
       <c r="A94">
         <v>2021</v>
       </c>
@@ -2964,14 +2919,14 @@
       <c r="C94" t="s">
         <v>15</v>
       </c>
-      <c r="D94" s="5">
-        <v>478958470.76999998</v>
+      <c r="D94">
+        <v>478958470.77</v>
       </c>
       <c r="E94">
         <v>4</v>
       </c>
-      <c r="F94" s="3">
-        <v>1.4235434268249671E-2</v>
+      <c r="F94">
+        <v>0.01423543426824967</v>
       </c>
       <c r="G94">
         <v>33645511738.146</v>
@@ -2980,7 +2935,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8">
       <c r="A95">
         <v>2021</v>
       </c>
@@ -2990,14 +2945,14 @@
       <c r="C95" t="s">
         <v>10</v>
       </c>
-      <c r="D95" s="5">
+      <c r="D95">
         <v>2380789035.204</v>
       </c>
       <c r="E95">
         <v>2</v>
       </c>
-      <c r="F95" s="3">
-        <v>7.0760969657202508E-2</v>
+      <c r="F95">
+        <v>0.07076096965720251</v>
       </c>
       <c r="G95">
         <v>33645511738.146</v>
@@ -3006,7 +2961,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8">
       <c r="A96">
         <v>2021</v>
       </c>
@@ -3016,14 +2971,14 @@
       <c r="C96" t="s">
         <v>22</v>
       </c>
-      <c r="D96" s="5">
+      <c r="D96">
         <v>200532533.354</v>
       </c>
       <c r="E96">
         <v>5</v>
       </c>
-      <c r="F96" s="3">
-        <v>5.960157031187129E-3</v>
+      <c r="F96">
+        <v>0.005960157031187129</v>
       </c>
       <c r="G96">
         <v>33645511738.146</v>
@@ -3032,7 +2987,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8">
       <c r="A97">
         <v>2022</v>
       </c>
@@ -3042,23 +2997,23 @@
       <c r="C97" t="s">
         <v>9</v>
       </c>
-      <c r="D97" s="5">
-        <v>41299882062.808998</v>
+      <c r="D97">
+        <v>41299882062.809</v>
       </c>
       <c r="E97">
         <v>1</v>
       </c>
-      <c r="F97" s="3">
+      <c r="F97">
         <v>0.7800735916262701</v>
       </c>
       <c r="G97">
-        <v>52943571614.453003</v>
+        <v>52943571614.453</v>
       </c>
       <c r="H97" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8">
       <c r="A98">
         <v>2022</v>
       </c>
@@ -3068,23 +3023,23 @@
       <c r="C98" t="s">
         <v>21</v>
       </c>
-      <c r="D98" s="5">
-        <v>484590170.87099999</v>
+      <c r="D98">
+        <v>484590170.871</v>
       </c>
       <c r="E98">
         <v>4</v>
       </c>
-      <c r="F98" s="3">
-        <v>9.1529557998069073E-3</v>
+      <c r="F98">
+        <v>0.009152955799806907</v>
       </c>
       <c r="G98">
-        <v>52943571614.453003</v>
+        <v>52943571614.453</v>
       </c>
       <c r="H98" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8">
       <c r="A99">
         <v>2022</v>
       </c>
@@ -3094,23 +3049,23 @@
       <c r="C99" t="s">
         <v>10</v>
       </c>
-      <c r="D99" s="5">
-        <v>2904521600.3629999</v>
+      <c r="D99">
+        <v>2904521600.363</v>
       </c>
       <c r="E99">
         <v>3</v>
       </c>
-      <c r="F99" s="3">
-        <v>5.4860703798269968E-2</v>
+      <c r="F99">
+        <v>0.05486070379826997</v>
       </c>
       <c r="G99">
-        <v>52943571614.453003</v>
+        <v>52943571614.453</v>
       </c>
       <c r="H99" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8">
       <c r="A100">
         <v>2022</v>
       </c>
@@ -3120,23 +3075,23 @@
       <c r="C100" t="s">
         <v>20</v>
       </c>
-      <c r="D100" s="5">
-        <v>6831124384.5830002</v>
+      <c r="D100">
+        <v>6831124384.583</v>
       </c>
       <c r="E100">
         <v>2</v>
       </c>
-      <c r="F100" s="3">
-        <v>0.12902651211989971</v>
+      <c r="F100">
+        <v>0.1290265121198997</v>
       </c>
       <c r="G100">
-        <v>52943571614.453003</v>
+        <v>52943571614.453</v>
       </c>
       <c r="H100" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8">
       <c r="A101">
         <v>2022</v>
       </c>
@@ -3146,23 +3101,23 @@
       <c r="C101" t="s">
         <v>15</v>
       </c>
-      <c r="D101" s="5">
-        <v>479542258.32700002</v>
+      <c r="D101">
+        <v>479542258.327</v>
       </c>
       <c r="E101">
         <v>5</v>
       </c>
-      <c r="F101" s="3">
-        <v>9.0576106542100063E-3</v>
+      <c r="F101">
+        <v>0.009057610654210006</v>
       </c>
       <c r="G101">
-        <v>52943571614.453003</v>
+        <v>52943571614.453</v>
       </c>
       <c r="H101" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8">
       <c r="A102">
         <v>2023</v>
       </c>
@@ -3172,23 +3127,23 @@
       <c r="C102" t="s">
         <v>9</v>
       </c>
-      <c r="D102" s="5">
-        <v>29896612959.179001</v>
+      <c r="D102">
+        <v>29896612959.179</v>
       </c>
       <c r="E102">
         <v>1</v>
       </c>
-      <c r="F102" s="3">
-        <v>0.84662290531152429</v>
+      <c r="F102">
+        <v>0.8466229053115243</v>
       </c>
       <c r="G102">
-        <v>35312785387.230003</v>
+        <v>35312785387.23</v>
       </c>
       <c r="H102" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8">
       <c r="A103">
         <v>2023</v>
       </c>
@@ -3198,23 +3153,23 @@
       <c r="C103" t="s">
         <v>21</v>
       </c>
-      <c r="D103" s="5">
+      <c r="D103">
         <v>139577179.331</v>
       </c>
       <c r="E103">
         <v>5</v>
       </c>
-      <c r="F103" s="3">
-        <v>3.952596143307196E-3</v>
+      <c r="F103">
+        <v>0.003952596143307196</v>
       </c>
       <c r="G103">
-        <v>35312785387.230003</v>
+        <v>35312785387.23</v>
       </c>
       <c r="H103" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8">
       <c r="A104">
         <v>2023</v>
       </c>
@@ -3224,23 +3179,23 @@
       <c r="C104" t="s">
         <v>20</v>
       </c>
-      <c r="D104" s="5">
+      <c r="D104">
         <v>2730503280.164</v>
       </c>
       <c r="E104">
         <v>2</v>
       </c>
-      <c r="F104" s="3">
-        <v>7.7323361785882228E-2</v>
+      <c r="F104">
+        <v>0.07732336178588223</v>
       </c>
       <c r="G104">
-        <v>35312785387.230003</v>
+        <v>35312785387.23</v>
       </c>
       <c r="H104" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8">
       <c r="A105">
         <v>2023</v>
       </c>
@@ -3250,23 +3205,23 @@
       <c r="C105" t="s">
         <v>10</v>
       </c>
-      <c r="D105" s="5">
-        <v>1751081815.9430001</v>
+      <c r="D105">
+        <v>1751081815.943</v>
       </c>
       <c r="E105">
         <v>3</v>
       </c>
-      <c r="F105" s="3">
-        <v>4.9587756863162538E-2</v>
+      <c r="F105">
+        <v>0.04958775686316254</v>
       </c>
       <c r="G105">
-        <v>35312785387.230003</v>
+        <v>35312785387.23</v>
       </c>
       <c r="H105" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8">
       <c r="A106">
         <v>2023</v>
       </c>
@@ -3276,17 +3231,17 @@
       <c r="C106" t="s">
         <v>15</v>
       </c>
-      <c r="D106" s="5">
-        <v>276093018.31599998</v>
+      <c r="D106">
+        <v>276093018.316</v>
       </c>
       <c r="E106">
         <v>4</v>
       </c>
-      <c r="F106" s="3">
-        <v>7.8185001632820016E-3</v>
+      <c r="F106">
+        <v>0.007818500163282002</v>
       </c>
       <c r="G106">
-        <v>35312785387.230003</v>
+        <v>35312785387.23</v>
       </c>
       <c r="H106" t="s">
         <v>29</v>
